--- a/芒果聚合各广告平台framework参考.xlsx
+++ b/芒果聚合各广告平台framework参考.xlsx
@@ -111,6 +111,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">AdSupport </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PassKit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+  </si>
+  <si>
     <t>libsqlite3.dylib</t>
   </si>
   <si>
@@ -584,31 +614,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>点媒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LeadBolt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>百灵欧拓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注：未统计到的平台参考芒果的sdk框架即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jumptap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdSupport </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PassKit </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百灵欧拓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点媒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +690,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -713,19 +758,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1729,39 +1778,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="753">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2852,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2870,10 +2919,10 @@
     <row r="1" spans="1:38" ht="17">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
@@ -2918,16 +2967,16 @@
         <v>3</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>2</v>
@@ -2936,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>21</v>
@@ -2945,7 +2994,7 @@
         <v>16</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>17</v>
@@ -2966,13 +3015,13 @@
         <v>26</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>18</v>
@@ -2980,7 +3029,7 @@
     </row>
     <row r="2" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -3051,7 +3100,7 @@
     </row>
     <row r="3" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3059,7 +3108,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -3068,29 +3117,29 @@
         <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -3100,7 +3149,7 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
@@ -3116,7 +3165,7 @@
     </row>
     <row r="4" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>15</v>
@@ -3151,7 +3200,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>15</v>
@@ -3165,7 +3214,7 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -3179,7 +3228,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -3195,10 +3244,10 @@
     </row>
     <row r="5" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3244,7 +3293,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>0</v>
@@ -3280,7 +3329,7 @@
     </row>
     <row r="6" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
@@ -3315,7 +3364,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="22" t="s">
@@ -3355,7 +3404,7 @@
     </row>
     <row r="7" spans="1:38" s="23" customFormat="1" ht="17">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>0</v>
@@ -3365,7 +3414,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>0</v>
@@ -3392,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="24" t="s">
@@ -3434,7 +3483,7 @@
     </row>
     <row r="8" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A8" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>15</v>
@@ -3505,7 +3554,7 @@
     </row>
     <row r="9" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A9" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>15</v>
@@ -3560,10 +3609,10 @@
     </row>
     <row r="10" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -3629,7 +3678,7 @@
     </row>
     <row r="11" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A11" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -3666,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="24" t="s">
         <v>0</v>
@@ -3680,7 +3729,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="24" t="s">
@@ -3694,7 +3743,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -3710,10 +3759,10 @@
     </row>
     <row r="12" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>0</v>
@@ -3735,65 +3784,65 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="S12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="U12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="X12" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB12" s="25" t="s">
         <v>0</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="25" t="s">
@@ -3803,19 +3852,19 @@
         <v>0</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI12" s="25" t="s">
         <v>0</v>
       </c>
       <c r="AJ12" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK12" s="11"/>
     </row>
     <row r="13" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>0</v>
@@ -3829,7 +3878,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>0</v>
@@ -3847,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>0</v>
@@ -3864,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -3894,7 +3943,7 @@
     </row>
     <row r="14" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A14" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>0</v>
@@ -3913,94 +3962,94 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>0</v>
@@ -4035,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O15" s="24" t="s">
         <v>0</v>
@@ -4047,34 +4096,34 @@
         <v>0</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W15" s="24" t="s">
         <v>0</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y15" s="24" t="s">
         <v>0</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AB15" s="24" t="s">
         <v>0</v>
@@ -4083,36 +4132,36 @@
         <v>0</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:38" s="12" customFormat="1" ht="17">
       <c r="A16" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4130,70 +4179,70 @@
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
@@ -4203,7 +4252,7 @@
     </row>
     <row r="17" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A17" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4211,7 +4260,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>15</v>
@@ -4220,30 +4269,30 @@
         <v>15</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T17" s="13" t="s">
         <v>15</v>
@@ -4259,15 +4308,15 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF17" s="7" t="s">
         <v>0</v>
@@ -4280,7 +4329,7 @@
     </row>
     <row r="18" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>0</v>
@@ -4296,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>0</v>
@@ -4317,34 +4366,34 @@
         <v>0</v>
       </c>
       <c r="N18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="S18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="V18" s="24" t="s">
         <v>0</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="X18" s="24" t="s">
         <v>0</v>
@@ -4369,7 +4418,7 @@
     </row>
     <row r="19" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>0</v>
@@ -4398,87 +4447,87 @@
         <v>0</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W19" s="9"/>
       <c r="X19" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Y19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Z19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AA19" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="AB19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI19" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ19" s="10"/>
       <c r="AK19" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM19" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A20" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4495,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M20" s="24" t="s">
         <v>0</v>
@@ -4513,76 +4562,76 @@
         <v>0</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="W20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="AE20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="S20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="W20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE20" s="10" t="s">
+      <c r="AG20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH20" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="AF20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH20" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>0</v>
@@ -4608,92 +4657,92 @@
         <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" s="9" t="s">
+      <c r="Y21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="S21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="AA21" s="24" t="s">
         <v>0</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="24" t="s">
         <v>0</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AK21" s="11"/>
       <c r="AL21" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AM21" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A22" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>0</v>
@@ -4703,10 +4752,10 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>0</v>
@@ -4715,98 +4764,98 @@
         <v>0</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W22" s="9"/>
       <c r="X22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF22" s="24" t="s">
         <v>0</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AL22" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM22" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AP22" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A23" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>15</v>
@@ -4879,7 +4928,7 @@
     </row>
     <row r="24" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A24" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>0</v>
@@ -4904,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N24" s="27" t="s">
         <v>0</v>
@@ -4922,77 +4971,77 @@
         <v>0</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="U24" s="30"/>
       <c r="V24" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W24" s="30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y24" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Z24" s="30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AA24" s="30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AB24" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC24" s="30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD24" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE24" s="31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="AG24" s="31"/>
       <c r="AH24" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI24" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ24" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK24" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:69" s="34" customFormat="1" ht="17">
-      <c r="A25" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+    <row r="25" spans="1:69" s="35" customFormat="1" ht="17">
+      <c r="A25" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="27" t="s">
         <v>0</v>
       </c>
@@ -5002,436 +5051,436 @@
       <c r="I25" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
       <c r="Q25" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="35"/>
-      <c r="AX25" s="35"/>
-      <c r="AY25" s="35"/>
-      <c r="AZ25" s="35"/>
-      <c r="BA25" s="35"/>
-      <c r="BB25" s="35"/>
-      <c r="BC25" s="35"/>
-      <c r="BD25" s="35"/>
-      <c r="BE25" s="35"/>
-      <c r="BF25" s="35"/>
-      <c r="BG25" s="35"/>
-      <c r="BH25" s="35"/>
-      <c r="BI25" s="35"/>
-      <c r="BJ25" s="35"/>
-      <c r="BK25" s="35"/>
-      <c r="BL25" s="35"/>
-      <c r="BM25" s="35"/>
-      <c r="BN25" s="35"/>
-      <c r="BO25" s="35"/>
-      <c r="BP25" s="35"/>
-      <c r="BQ25" s="35"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="36"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="36"/>
+      <c r="BD25" s="36"/>
+      <c r="BE25" s="36"/>
+      <c r="BF25" s="36"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="36"/>
+      <c r="BK25" s="36"/>
+      <c r="BL25" s="36"/>
+      <c r="BM25" s="36"/>
+      <c r="BN25" s="36"/>
+      <c r="BO25" s="36"/>
+      <c r="BP25" s="36"/>
+      <c r="BQ25" s="36"/>
     </row>
-    <row r="26" spans="1:69" s="34" customFormat="1" ht="17">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:69" s="35" customFormat="1" ht="17">
+      <c r="A26" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="36"/>
+      <c r="AU26" s="36"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="36"/>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="36"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26" s="36"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="36"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="36"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="36"/>
+      <c r="BM26" s="36"/>
+      <c r="BN26" s="36"/>
+      <c r="BO26" s="36"/>
+      <c r="BP26" s="36"/>
+      <c r="BQ26" s="36"/>
+    </row>
+    <row r="27" spans="1:69" s="35" customFormat="1" ht="17">
+      <c r="A27" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="36"/>
+      <c r="BM27" s="36"/>
+      <c r="BN27" s="36"/>
+      <c r="BO27" s="36"/>
+      <c r="BP27" s="36"/>
+      <c r="BQ27" s="36"/>
+    </row>
+    <row r="28" spans="1:69" s="35" customFormat="1" ht="17">
+      <c r="A28" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="36"/>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="36"/>
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+    </row>
+    <row r="29" spans="1:69" s="35" customFormat="1" ht="17">
+      <c r="A29" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="36"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="36"/>
+      <c r="BJ29" s="36"/>
+      <c r="BK29" s="36"/>
+      <c r="BL29" s="36"/>
+      <c r="BM29" s="36"/>
+      <c r="BN29" s="36"/>
+      <c r="BO29" s="36"/>
+      <c r="BP29" s="36"/>
+      <c r="BQ29" s="36"/>
+    </row>
+    <row r="30" spans="1:69" s="35" customFormat="1" ht="17">
+      <c r="A30" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="35"/>
-      <c r="AX26" s="35"/>
-      <c r="AY26" s="35"/>
-      <c r="AZ26" s="35"/>
-      <c r="BA26" s="35"/>
-      <c r="BB26" s="35"/>
-      <c r="BC26" s="35"/>
-      <c r="BD26" s="35"/>
-      <c r="BE26" s="35"/>
-      <c r="BF26" s="35"/>
-      <c r="BG26" s="35"/>
-      <c r="BH26" s="35"/>
-      <c r="BI26" s="35"/>
-      <c r="BJ26" s="35"/>
-      <c r="BK26" s="35"/>
-      <c r="BL26" s="35"/>
-      <c r="BM26" s="35"/>
-      <c r="BN26" s="35"/>
-      <c r="BO26" s="35"/>
-      <c r="BP26" s="35"/>
-      <c r="BQ26" s="35"/>
-    </row>
-    <row r="27" spans="1:69" s="34" customFormat="1" ht="17">
-      <c r="A27" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="35"/>
-      <c r="AX27" s="35"/>
-      <c r="AY27" s="35"/>
-      <c r="AZ27" s="35"/>
-      <c r="BA27" s="35"/>
-      <c r="BB27" s="35"/>
-      <c r="BC27" s="35"/>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="35"/>
-      <c r="BF27" s="35"/>
-      <c r="BG27" s="35"/>
-      <c r="BH27" s="35"/>
-      <c r="BI27" s="35"/>
-      <c r="BJ27" s="35"/>
-      <c r="BK27" s="35"/>
-      <c r="BL27" s="35"/>
-      <c r="BM27" s="35"/>
-      <c r="BN27" s="35"/>
-      <c r="BO27" s="35"/>
-      <c r="BP27" s="35"/>
-      <c r="BQ27" s="35"/>
-    </row>
-    <row r="28" spans="1:69" s="34" customFormat="1" ht="17">
-      <c r="A28" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="35"/>
-      <c r="AX28" s="35"/>
-      <c r="AY28" s="35"/>
-      <c r="AZ28" s="35"/>
-      <c r="BA28" s="35"/>
-      <c r="BB28" s="35"/>
-      <c r="BC28" s="35"/>
-      <c r="BD28" s="35"/>
-      <c r="BE28" s="35"/>
-      <c r="BF28" s="35"/>
-      <c r="BG28" s="35"/>
-      <c r="BH28" s="35"/>
-      <c r="BI28" s="35"/>
-      <c r="BJ28" s="35"/>
-      <c r="BK28" s="35"/>
-      <c r="BL28" s="35"/>
-      <c r="BM28" s="35"/>
-      <c r="BN28" s="35"/>
-      <c r="BO28" s="35"/>
-      <c r="BP28" s="35"/>
-      <c r="BQ28" s="35"/>
-    </row>
-    <row r="29" spans="1:69" s="34" customFormat="1" ht="17">
-      <c r="A29" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="35"/>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="35"/>
-      <c r="AW29" s="35"/>
-      <c r="AX29" s="35"/>
-      <c r="AY29" s="35"/>
-      <c r="AZ29" s="35"/>
-      <c r="BA29" s="35"/>
-      <c r="BB29" s="35"/>
-      <c r="BC29" s="35"/>
-      <c r="BD29" s="35"/>
-      <c r="BE29" s="35"/>
-      <c r="BF29" s="35"/>
-      <c r="BG29" s="35"/>
-      <c r="BH29" s="35"/>
-      <c r="BI29" s="35"/>
-      <c r="BJ29" s="35"/>
-      <c r="BK29" s="35"/>
-      <c r="BL29" s="35"/>
-      <c r="BM29" s="35"/>
-      <c r="BN29" s="35"/>
-      <c r="BO29" s="35"/>
-      <c r="BP29" s="35"/>
-      <c r="BQ29" s="35"/>
-    </row>
-    <row r="30" spans="1:69" s="34" customFormat="1" ht="17">
-      <c r="A30" s="37" t="s">
-        <v>152</v>
-      </c>
       <c r="B30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="27" t="s">
         <v>0</v>
       </c>
@@ -5447,82 +5496,82 @@
       <c r="I30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="38" t="s">
+      <c r="J30" s="34"/>
+      <c r="K30" s="39" t="s">
         <v>0</v>
       </c>
       <c r="L30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
       <c r="O30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
       <c r="T30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
       <c r="Y30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
       <c r="AK30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
-      <c r="AO30" s="35"/>
-      <c r="AP30" s="35"/>
-      <c r="AQ30" s="35"/>
-      <c r="AR30" s="35"/>
-      <c r="AS30" s="35"/>
-      <c r="AT30" s="35"/>
-      <c r="AU30" s="35"/>
-      <c r="AV30" s="35"/>
-      <c r="AW30" s="35"/>
-      <c r="AX30" s="35"/>
-      <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="35"/>
-      <c r="BB30" s="35"/>
-      <c r="BC30" s="35"/>
-      <c r="BD30" s="35"/>
-      <c r="BE30" s="35"/>
-      <c r="BF30" s="35"/>
-      <c r="BG30" s="35"/>
-      <c r="BH30" s="35"/>
-      <c r="BI30" s="35"/>
-      <c r="BJ30" s="35"/>
-      <c r="BK30" s="35"/>
-      <c r="BL30" s="35"/>
-      <c r="BM30" s="35"/>
-      <c r="BN30" s="35"/>
-      <c r="BO30" s="35"/>
-      <c r="BP30" s="35"/>
-      <c r="BQ30" s="35"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="36"/>
+      <c r="AU30" s="36"/>
+      <c r="AV30" s="36"/>
+      <c r="AW30" s="36"/>
+      <c r="AX30" s="36"/>
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="36"/>
+      <c r="BA30" s="36"/>
+      <c r="BB30" s="36"/>
+      <c r="BC30" s="36"/>
+      <c r="BD30" s="36"/>
+      <c r="BE30" s="36"/>
+      <c r="BF30" s="36"/>
+      <c r="BG30" s="36"/>
+      <c r="BH30" s="36"/>
+      <c r="BI30" s="36"/>
+      <c r="BJ30" s="36"/>
+      <c r="BK30" s="36"/>
+      <c r="BL30" s="36"/>
+      <c r="BM30" s="36"/>
+      <c r="BN30" s="36"/>
+      <c r="BO30" s="36"/>
+      <c r="BP30" s="36"/>
+      <c r="BQ30" s="36"/>
     </row>
     <row r="31" spans="1:69" s="12" customFormat="1" ht="17">
       <c r="A31" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5587,7 +5636,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5614,7 +5663,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19">
       <c r="A1" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5633,7 +5682,7 @@
     <row r="2" spans="1:14" ht="19">
       <c r="A2" s="19"/>
       <c r="B2" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
@@ -5651,7 +5700,7 @@
     <row r="3" spans="1:14" ht="19">
       <c r="A3" s="19"/>
       <c r="B3" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
@@ -5669,7 +5718,7 @@
     <row r="4" spans="1:14" ht="19">
       <c r="A4" s="19"/>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
@@ -5687,7 +5736,7 @@
     <row r="5" spans="1:14" ht="19">
       <c r="A5" s="19"/>
       <c r="B5" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
@@ -5705,7 +5754,7 @@
     <row r="6" spans="1:14" ht="19">
       <c r="A6" s="19"/>
       <c r="B6" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
@@ -5723,7 +5772,7 @@
     <row r="7" spans="1:14" ht="19">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -5741,7 +5790,7 @@
     <row r="8" spans="1:14" ht="19">
       <c r="A8" s="19"/>
       <c r="B8" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
@@ -5759,7 +5808,7 @@
     <row r="9" spans="1:14" ht="19">
       <c r="A9" s="19"/>
       <c r="B9" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
@@ -5777,7 +5826,7 @@
     <row r="10" spans="1:14" ht="19">
       <c r="A10" s="19"/>
       <c r="B10" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -5795,7 +5844,7 @@
     <row r="11" spans="1:14" ht="19">
       <c r="A11" s="19"/>
       <c r="B11" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
@@ -5813,7 +5862,7 @@
     <row r="12" spans="1:14" ht="19">
       <c r="A12" s="19"/>
       <c r="B12" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -5831,7 +5880,7 @@
     <row r="13" spans="1:14" ht="19">
       <c r="A13" s="19"/>
       <c r="B13" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -5849,7 +5898,7 @@
     <row r="14" spans="1:14" ht="19">
       <c r="A14" s="19"/>
       <c r="B14" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>

--- a/芒果聚合各广告平台framework参考.xlsx
+++ b/芒果聚合各广告平台framework参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="5020" yWindow="180" windowWidth="19980" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="平台支持的框架" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="172">
   <si>
     <t>√</t>
   </si>
@@ -210,14 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艾德思奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安沃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帷千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ImageIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智迅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inmobi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,26 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广点通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,14 +451,6 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,6 +599,114 @@
   </si>
   <si>
     <t>jumptap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有米插屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chartboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广点通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德思奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帷千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智迅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,8 +1075,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="753">
+  <cellStyleXfs count="755">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1812,7 +1874,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="753">
+  <cellStyles count="755">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2189,6 +2251,7 @@
     <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2565,6 +2628,7 @@
     <cellStyle name="访问过的超链接" xfId="748" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="750" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2899,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ36"/>
+  <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2912,11 +2976,22 @@
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="31.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" customWidth="1"/>
+    <col min="22" max="22" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="17">
+    <row r="1" spans="1:37" ht="17">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>28</v>
@@ -2985,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>21</v>
@@ -2994,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>17</v>
@@ -3021,15 +3096,15 @@
         <v>48</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="2" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A2" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -3098,9 +3173,9 @@
       <c r="AJ2" s="10"/>
       <c r="AK2" s="11"/>
     </row>
-    <row r="3" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="3" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3108,7 +3183,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -3117,29 +3192,29 @@
         <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -3149,7 +3224,7 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
@@ -3163,9 +3238,9 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="11"/>
     </row>
-    <row r="4" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="4" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>15</v>
@@ -3200,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>15</v>
@@ -3214,7 +3289,7 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -3228,7 +3303,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -3242,12 +3317,12 @@
       <c r="AJ4" s="10"/>
       <c r="AK4" s="11"/>
     </row>
-    <row r="5" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="5" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3293,7 +3368,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>0</v>
@@ -3327,9 +3402,9 @@
       </c>
       <c r="AK5" s="11"/>
     </row>
-    <row r="6" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="6" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
@@ -3364,7 +3439,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="22" t="s">
@@ -3402,88 +3477,86 @@
       <c r="AJ6" s="21"/>
       <c r="AK6" s="11"/>
     </row>
-    <row r="7" spans="1:38" s="23" customFormat="1" ht="17">
+    <row r="7" spans="1:37" s="23" customFormat="1" ht="17">
       <c r="A7" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="24" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="X7" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="24" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AC7" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="10"/>
-      <c r="AF7" s="24" t="s">
-        <v>0</v>
-      </c>
+      <c r="AF7" s="24"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="11"/>
     </row>
-    <row r="8" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="8" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>15</v>
@@ -3552,12 +3625,12 @@
       <c r="AJ8" s="10"/>
       <c r="AK8" s="11"/>
     </row>
-    <row r="9" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="9" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3607,53 +3680,47 @@
       <c r="AJ9" s="10"/>
       <c r="AK9" s="11"/>
     </row>
-    <row r="10" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="10" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="T10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -3661,9 +3728,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
-      <c r="AB10" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB10" s="7"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="10"/>
@@ -3676,80 +3741,86 @@
       <c r="AJ10" s="10"/>
       <c r="AK10" s="11"/>
     </row>
-    <row r="11" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="11" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="24" t="s">
-        <v>0</v>
-      </c>
+      <c r="C11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="T11" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="24" t="s">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y11" s="24"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
@@ -3757,12 +3828,12 @@
       <c r="AJ11" s="10"/>
       <c r="AK11" s="11"/>
     </row>
-    <row r="12" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="12" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>0</v>
@@ -3784,19 +3855,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L12" s="25" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O12" s="25" t="s">
         <v>0</v>
@@ -3804,116 +3875,122 @@
       <c r="P12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="25" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q12" s="25"/>
       <c r="R12" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="T12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="Y12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG12" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AI12" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AK12" s="11"/>
     </row>
-    <row r="13" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="13" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="S13" s="25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -3941,12 +4018,12 @@
       <c r="AJ13" s="10"/>
       <c r="AK13" s="11"/>
     </row>
-    <row r="14" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="14" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3962,94 +4039,91 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="U14" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="X14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL14" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="12" customFormat="1" ht="17">
+    <row r="15" spans="1:37" s="12" customFormat="1" ht="17">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>0</v>
@@ -4084,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O15" s="24" t="s">
         <v>0</v>
@@ -4096,153 +4170,150 @@
         <v>0</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="V15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="12" customFormat="1" ht="17">
+      <c r="A16" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="W15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL15" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" s="12" customFormat="1" ht="17">
-      <c r="A16" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
@@ -4250,76 +4321,56 @@
       <c r="AJ16" s="10"/>
       <c r="AK16" s="11"/>
     </row>
-    <row r="17" spans="1:69" s="12" customFormat="1" ht="17">
+    <row r="17" spans="1:66" s="12" customFormat="1" ht="17">
       <c r="A17" s="6" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E17" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>15</v>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="9"/>
+      <c r="W17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
-      <c r="AE17" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="AE17" s="10"/>
       <c r="AF17" s="7" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
@@ -4327,87 +4378,75 @@
       <c r="AJ17" s="10"/>
       <c r="AK17" s="11"/>
     </row>
-    <row r="18" spans="1:69" s="12" customFormat="1" ht="17">
+    <row r="18" spans="1:66" s="12" customFormat="1" ht="17">
       <c r="A18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>0</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>0</v>
-      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="V18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="X18" s="24" t="s">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="24" t="s">
-        <v>0</v>
+      <c r="AA18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="24" t="s">
+      <c r="AE18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AG18" s="10"/>
@@ -4416,26 +4455,26 @@
       <c r="AJ18" s="10"/>
       <c r="AK18" s="11"/>
     </row>
-    <row r="19" spans="1:69" s="12" customFormat="1" ht="17">
+    <row r="19" spans="1:66" s="12" customFormat="1" ht="17">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>15</v>
+        <v>167</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>0</v>
@@ -4446,94 +4485,78 @@
       <c r="K19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>88</v>
+      <c r="L19" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="M19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="24" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="S19" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="T19" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA19" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
       <c r="AB19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AC19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE19" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="10"/>
       <c r="AF19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AG19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI19" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
-      <c r="AK19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM19" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="AK19" s="11"/>
     </row>
-    <row r="20" spans="1:69" s="12" customFormat="1" ht="17">
+    <row r="20" spans="1:66" s="12" customFormat="1" ht="17">
       <c r="A20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="24" t="s">
         <v>0</v>
       </c>
@@ -4543,107 +4566,94 @@
       <c r="I20" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
+      <c r="J20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M20" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="24" t="s">
-        <v>0</v>
+      <c r="N20" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="O20" s="24" t="s">
         <v>0</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>90</v>
+        <v>108</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="S20" s="9"/>
       <c r="T20" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="W20" s="24" t="s">
-        <v>0</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="W20" s="9"/>
       <c r="X20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>67</v>
+        <v>111</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB20" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="AB20" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF20" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="AF20" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ20" s="10"/>
       <c r="AK20" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL20" s="12" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:69" s="12" customFormat="1" ht="17">
+    <row r="21" spans="1:66" s="12" customFormat="1" ht="17">
       <c r="A21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>0</v>
-      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="24" t="s">
         <v>0</v>
       </c>
@@ -4654,210 +4664,198 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="T21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="W21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA21" s="24" t="s">
-        <v>0</v>
-      </c>
       <c r="AB21" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="24" t="s">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI21" s="10" t="s">
-        <v>67</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AI21" s="10"/>
       <c r="AJ21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM21" s="12" t="s">
-        <v>67</v>
+        <v>111</v>
+      </c>
+      <c r="AK21" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:69" s="12" customFormat="1" ht="17">
+    <row r="22" spans="1:66" s="12" customFormat="1" ht="17">
       <c r="A22" s="6" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7" t="s">
-        <v>92</v>
+      <c r="E22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>0</v>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>114</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA22" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="AA22" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AE22" s="10"/>
       <c r="AF22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AG22" s="10"/>
+      <c r="AG22" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="AH22" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO22" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP22" s="12" t="s">
-        <v>72</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AK22" s="11"/>
     </row>
-    <row r="23" spans="1:69" s="12" customFormat="1" ht="17">
+    <row r="23" spans="1:66" s="12" customFormat="1" ht="17">
       <c r="A23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="8"/>
@@ -4865,289 +4863,311 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="T23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="W23" s="9"/>
       <c r="X23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="7" t="s">
-        <v>15</v>
+      <c r="Y23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="7" t="s">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF23" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="11"/>
+      <c r="AH23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM23" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="24" spans="1:69" s="12" customFormat="1" ht="17">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:66" s="12" customFormat="1" ht="17">
+      <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="11"/>
+    </row>
+    <row r="25" spans="1:66" s="12" customFormat="1" ht="17">
+      <c r="A25" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="W25" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="X25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="S24" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="W24" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="X24" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y24" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z24" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA24" s="30" t="s">
+      <c r="Y25" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="AB24" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC24" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI24" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ24" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK24" s="32" t="s">
-        <v>67</v>
+      <c r="Z25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA25" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI25" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK25" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:69" s="35" customFormat="1" ht="17">
-      <c r="A25" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="36"/>
-      <c r="BC25" s="36"/>
-      <c r="BD25" s="36"/>
-      <c r="BE25" s="36"/>
-      <c r="BF25" s="36"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="36"/>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="36"/>
-      <c r="BM25" s="36"/>
-      <c r="BN25" s="36"/>
-      <c r="BO25" s="36"/>
-      <c r="BP25" s="36"/>
-      <c r="BQ25" s="36"/>
-    </row>
-    <row r="26" spans="1:69" s="35" customFormat="1" ht="17">
+    <row r="26" spans="1:66" s="35" customFormat="1" ht="17">
       <c r="A26" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>0</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="H26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="M26" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="R26" s="34"/>
       <c r="S26" s="34"/>
       <c r="T26" s="34"/>
@@ -5197,13 +5217,10 @@
       <c r="BL26" s="36"/>
       <c r="BM26" s="36"/>
       <c r="BN26" s="36"/>
-      <c r="BO26" s="36"/>
-      <c r="BP26" s="36"/>
-      <c r="BQ26" s="36"/>
     </row>
-    <row r="27" spans="1:69" s="35" customFormat="1" ht="17">
-      <c r="A27" s="38" t="s">
-        <v>149</v>
+    <row r="27" spans="1:66" s="35" customFormat="1" ht="17">
+      <c r="A27" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>0</v>
@@ -5219,19 +5236,15 @@
       <c r="G27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="K27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L27" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
@@ -5239,16 +5252,12 @@
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
-      <c r="T27" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="T27" s="34"/>
       <c r="U27" s="34"/>
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
       <c r="X27" s="34"/>
-      <c r="Y27" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
       <c r="AA27" s="34"/>
       <c r="AB27" s="34"/>
@@ -5260,9 +5269,7 @@
       <c r="AH27" s="34"/>
       <c r="AI27" s="34"/>
       <c r="AJ27" s="34"/>
-      <c r="AK27" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="AK27" s="37"/>
       <c r="AL27" s="36"/>
       <c r="AM27" s="36"/>
       <c r="AN27" s="36"/>
@@ -5292,13 +5299,10 @@
       <c r="BL27" s="36"/>
       <c r="BM27" s="36"/>
       <c r="BN27" s="36"/>
-      <c r="BO27" s="36"/>
-      <c r="BP27" s="36"/>
-      <c r="BQ27" s="36"/>
     </row>
-    <row r="28" spans="1:69" s="35" customFormat="1" ht="17">
+    <row r="28" spans="1:66" s="35" customFormat="1" ht="17">
       <c r="A28" s="38" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>0</v>
@@ -5321,25 +5325,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
+      <c r="K28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
-      <c r="O28" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="O28" s="34"/>
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
+      <c r="T28" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="U28" s="34"/>
-      <c r="V28" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
       <c r="X28" s="34"/>
       <c r="Y28" s="27" t="s">
         <v>0</v>
@@ -5348,16 +5352,16 @@
       <c r="AA28" s="34"/>
       <c r="AB28" s="34"/>
       <c r="AC28" s="34"/>
-      <c r="AD28" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="AD28" s="34"/>
       <c r="AE28" s="34"/>
       <c r="AF28" s="34"/>
       <c r="AG28" s="34"/>
       <c r="AH28" s="34"/>
       <c r="AI28" s="34"/>
       <c r="AJ28" s="34"/>
-      <c r="AK28" s="37"/>
+      <c r="AK28" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="AL28" s="36"/>
       <c r="AM28" s="36"/>
       <c r="AN28" s="36"/>
@@ -5387,51 +5391,62 @@
       <c r="BL28" s="36"/>
       <c r="BM28" s="36"/>
       <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
     </row>
-    <row r="29" spans="1:69" s="35" customFormat="1" ht="17">
+    <row r="29" spans="1:66" s="35" customFormat="1" ht="17">
       <c r="A29" s="38" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="E29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
+      <c r="O29" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="P29" s="34"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
+      <c r="V29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
+      <c r="Y29" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="Z29" s="34"/>
       <c r="AA29" s="34"/>
       <c r="AB29" s="34"/>
       <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
+      <c r="AD29" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="AE29" s="34"/>
       <c r="AF29" s="34"/>
       <c r="AG29" s="34"/>
@@ -5468,60 +5483,43 @@
       <c r="BL29" s="36"/>
       <c r="BM29" s="36"/>
       <c r="BN29" s="36"/>
-      <c r="BO29" s="36"/>
-      <c r="BP29" s="36"/>
-      <c r="BQ29" s="36"/>
     </row>
-    <row r="30" spans="1:69" s="35" customFormat="1" ht="17">
+    <row r="30" spans="1:66" s="35" customFormat="1" ht="17">
       <c r="A30" s="38" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="E30" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="34"/>
-      <c r="K30" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
-      <c r="O30" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="O30" s="34"/>
       <c r="P30" s="34"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
-      <c r="T30" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="T30" s="34"/>
       <c r="U30" s="34"/>
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
       <c r="X30" s="34"/>
-      <c r="Y30" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
       <c r="AA30" s="34"/>
       <c r="AB30" s="34"/>
@@ -5533,9 +5531,7 @@
       <c r="AH30" s="34"/>
       <c r="AI30" s="34"/>
       <c r="AJ30" s="34"/>
-      <c r="AK30" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="AK30" s="37"/>
       <c r="AL30" s="36"/>
       <c r="AM30" s="36"/>
       <c r="AN30" s="36"/>
@@ -5565,78 +5561,285 @@
       <c r="BL30" s="36"/>
       <c r="BM30" s="36"/>
       <c r="BN30" s="36"/>
-      <c r="BO30" s="36"/>
-      <c r="BP30" s="36"/>
-      <c r="BQ30" s="36"/>
     </row>
-    <row r="31" spans="1:69" s="12" customFormat="1" ht="17">
-      <c r="A31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="11"/>
+    <row r="31" spans="1:66" s="35" customFormat="1" ht="17">
+      <c r="A31" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="36"/>
+      <c r="AT31" s="36"/>
+      <c r="AU31" s="36"/>
+      <c r="AV31" s="36"/>
+      <c r="AW31" s="36"/>
+      <c r="AX31" s="36"/>
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="36"/>
+      <c r="BA31" s="36"/>
+      <c r="BB31" s="36"/>
+      <c r="BC31" s="36"/>
+      <c r="BD31" s="36"/>
+      <c r="BE31" s="36"/>
+      <c r="BF31" s="36"/>
+      <c r="BG31" s="36"/>
+      <c r="BH31" s="36"/>
+      <c r="BI31" s="36"/>
+      <c r="BJ31" s="36"/>
+      <c r="BK31" s="36"/>
+      <c r="BL31" s="36"/>
+      <c r="BM31" s="36"/>
+      <c r="BN31" s="36"/>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>155</v>
+    <row r="32" spans="1:66" s="36" customFormat="1" ht="17">
+      <c r="A32" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+    </row>
+    <row r="33" spans="1:37" s="12" customFormat="1" ht="17">
+      <c r="A33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="11"/>
+    </row>
+    <row r="34" spans="1:37" s="12" customFormat="1" ht="17">
+      <c r="A34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="11"/>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/芒果聚合各广告平台framework参考.xlsx
+++ b/芒果聚合各广告平台framework参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="8440" windowWidth="32860" windowHeight="9780" tabRatio="500"/>
+    <workbookView xWindow="15520" yWindow="0" windowWidth="18520" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="平台支持的框架" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="200">
   <si>
     <t>√</t>
   </si>
@@ -651,23 +651,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>广点通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德思奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帷千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广点通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾德思奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帷千</t>
+    <t>智迅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至美</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,26 +683,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智迅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,6 +715,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CoreImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iAd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,11 +731,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoreImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iAd</t>
+    <t xml:space="preserve"> √</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> √</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libz.dylib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libz.1.2.5.dylib</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -735,31 +759,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>智游汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>掌上互动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> √</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoreAudio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> √</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>libz.dylib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>libz.1.2.5.dylib</t>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1064,8 +1120,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="759">
+  <cellStyleXfs count="773">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1860,7 +1930,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="759">
+  <cellStyles count="773">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2240,6 +2310,13 @@
     <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2619,6 +2696,13 @@
     <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="756" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2953,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO40"/>
+  <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V23" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2981,6 +3065,7 @@
     <col min="20" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="18.33203125" customWidth="1"/>
     <col min="22" max="22" width="21.33203125" customWidth="1"/>
+    <col min="39" max="39" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="17">
@@ -3034,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>23</v>
@@ -3055,10 +3140,10 @@
         <v>52</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>16</v>
@@ -3094,10 +3179,10 @@
         <v>68</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AM1" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="6" customFormat="1" ht="17">
@@ -3544,7 +3629,7 @@
       </c>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
@@ -3639,7 +3724,7 @@
     </row>
     <row r="9" spans="1:39" s="6" customFormat="1" ht="17">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>47</v>
@@ -3677,7 +3762,7 @@
         <v>15</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="5"/>
@@ -3687,7 +3772,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
@@ -3701,16 +3786,14 @@
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>166</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
@@ -3719,7 +3802,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
@@ -3761,7 +3844,7 @@
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" ht="17">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -3829,12 +3912,12 @@
         <v>15</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z11" s="17"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AC11" s="4" t="s">
         <v>65</v>
@@ -3851,12 +3934,12 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" ht="17">
       <c r="A12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>58</v>
@@ -3906,13 +3989,13 @@
         <v>65</v>
       </c>
       <c r="S12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>67</v>
@@ -3973,7 +4056,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>146</v>
@@ -4057,8 +4140,12 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4110,9 +4197,7 @@
       <c r="W14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X14" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="X14" s="17"/>
       <c r="Y14" s="5" t="s">
         <v>77</v>
       </c>
@@ -4193,7 +4278,7 @@
         <v>58</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>0</v>
@@ -4287,7 +4372,7 @@
         <v>146</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>146</v>
@@ -4296,10 +4381,10 @@
         <v>77</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>58</v>
@@ -4508,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>0</v>
@@ -4586,7 +4671,7 @@
     </row>
     <row r="20" spans="1:67" s="6" customFormat="1" ht="17">
       <c r="A20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>0</v>
@@ -4660,10 +4745,10 @@
         <v>77</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE20" s="5" t="s">
         <v>77</v>
@@ -4808,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>15</v>
@@ -4963,7 +5048,7 @@
         <v>15</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5" t="s">
@@ -5067,7 +5152,7 @@
         <v>15</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
@@ -5084,10 +5169,10 @@
     </row>
     <row r="25" spans="1:67" s="6" customFormat="1" ht="17">
       <c r="A25" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>0</v>
@@ -5124,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>58</v>
@@ -5195,7 +5280,9 @@
       <c r="A26" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -5207,9 +5294,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="17" t="s">
@@ -5276,9 +5365,7 @@
       <c r="A27" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="B27" s="17"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
@@ -5292,9 +5379,7 @@
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="J27" s="17"/>
       <c r="K27" s="17" t="s">
         <v>0</v>
       </c>
@@ -5362,10 +5447,12 @@
       <c r="B28" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>0</v>
@@ -5377,11 +5464,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="17" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="L28" s="17" t="s">
         <v>0</v>
@@ -5389,7 +5476,9 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="P28" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
@@ -5398,20 +5487,30 @@
       </c>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
+      <c r="W28" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X28" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="Y28" s="17" t="s">
         <v>0</v>
       </c>
       <c r="Z28" s="17"/>
       <c r="AA28" s="19"/>
       <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
+      <c r="AG28" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH28" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="19"/>
@@ -5467,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -5849,7 +5948,7 @@
     </row>
     <row r="34" spans="1:39" s="6" customFormat="1" ht="17">
       <c r="A34" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5902,75 +6001,252 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="24"/>
     </row>
-    <row r="35" spans="1:39" s="6" customFormat="1" ht="18" thickBot="1">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:39" s="6" customFormat="1" ht="17">
+      <c r="A35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="31" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y35" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="O35" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y35" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="32"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="24"/>
     </row>
-    <row r="40" spans="1:39">
-      <c r="A40" t="s">
+    <row r="36" spans="1:39" s="6" customFormat="1" ht="17">
+      <c r="A36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="24"/>
+    </row>
+    <row r="37" spans="1:39" s="6" customFormat="1" ht="18" thickBot="1">
+      <c r="A37" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="X37" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="30"/>
+      <c r="AM37" s="32"/>
+    </row>
+    <row r="38" spans="1:39" s="6" customFormat="1" ht="18" thickBot="1">
+      <c r="A38" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38" s="31"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="X38" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y38" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="32"/>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" t="s">
         <v>138</v>
       </c>
     </row>

--- a/芒果聚合各广告平台framework参考.xlsx
+++ b/芒果聚合各广告平台framework参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="5480" windowWidth="32120" windowHeight="13040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="平台支持的框架" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="227">
   <si>
     <t>√</t>
   </si>
@@ -909,7 +909,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Applovin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加沃移动广告平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1216,8 +1232,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="851">
+  <cellStyleXfs count="855">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2104,7 +2124,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="851">
+  <cellStyles count="855">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2530,6 +2550,8 @@
     <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2955,6 +2977,8 @@
     <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3289,13 +3313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO43"/>
+  <dimension ref="A1:BO45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="16" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="16" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4577,7 +4601,7 @@
         <v>167</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="15" t="s">
         <v>0</v>
@@ -6565,7 +6589,7 @@
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="3"/>
@@ -6766,7 +6790,7 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
@@ -6832,27 +6856,27 @@
         <v>219</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="24"/>
@@ -6872,14 +6896,14 @@
       <c r="Z42" s="24"/>
       <c r="AA42" s="24"/>
       <c r="AB42" s="24" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="AC42" s="25"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="24"/>
       <c r="AF42" s="24"/>
       <c r="AG42" s="25" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
@@ -6890,8 +6914,124 @@
       <c r="AN42" s="27"/>
       <c r="AO42" s="26"/>
     </row>
-    <row r="43" spans="1:41">
-      <c r="A43" t="s">
+    <row r="43" spans="1:41" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A43" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="25"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="T43" s="25"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="24"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="26"/>
+    </row>
+    <row r="44" spans="1:41" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A44" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K44" s="25"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="27"/>
+      <c r="AO44" s="26"/>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" t="s">
         <v>130</v>
       </c>
     </row>
